--- a/EvaluationResults/RQ2+RQ3/1-SlsDetector-llama-result.xlsx
+++ b/EvaluationResults/RQ2+RQ3/1-SlsDetector-llama-result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cynthia/Desktop/Cynthia WorkSpace/serverless misconfiguration/LLM新方法设计/AllCode/Output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A898AF4-8342-0F43-8CC2-6494F165E6A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F2DD066-B564-1847-8808-C4FCB407A98A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5240" yWindow="-20020" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -696,9 +696,6 @@
     <t>case47-github-error.yaml</t>
   </si>
   <si>
-    <t>remove BlobsBucket resource type</t>
-  </si>
-  <si>
     <t>case48-github-error.yaml</t>
   </si>
   <si>
@@ -1061,6 +1058,10 @@
   </si>
   <si>
     <t>TN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remove BlobsBucket resource type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1150,7 +1151,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1189,9 +1190,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1509,8 +1507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="88" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D116" sqref="D116:D117"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="88" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D106" sqref="D106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="18" customHeight="1"/>
@@ -1530,40 +1528,40 @@
   <sheetData>
     <row r="1" spans="1:16" ht="96" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="12" t="s">
         <v>306</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>307</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>308</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>309</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>310</v>
       </c>
       <c r="M1" s="12"/>
       <c r="N1" s="12"/>
@@ -1580,7 +1578,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E2" s="4">
         <v>0</v>
@@ -1623,7 +1621,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E3" s="4">
         <v>0</v>
@@ -1666,7 +1664,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E4" s="4">
         <v>0</v>
@@ -1709,7 +1707,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E5" s="4">
         <v>0</v>
@@ -1752,7 +1750,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E6" s="4">
         <v>0</v>
@@ -1795,7 +1793,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E7" s="4">
         <v>0</v>
@@ -1838,7 +1836,7 @@
         <v>14</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E8" s="4">
         <v>0</v>
@@ -1881,7 +1879,7 @@
         <v>16</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E9" s="4">
         <v>0</v>
@@ -1924,7 +1922,7 @@
         <v>18</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E10" s="4">
         <v>0</v>
@@ -1967,7 +1965,7 @@
         <v>20</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E11" s="4">
         <v>0</v>
@@ -2010,7 +2008,7 @@
         <v>22</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E12" s="4">
         <v>0</v>
@@ -2053,7 +2051,7 @@
         <v>24</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E13" s="4">
         <v>0</v>
@@ -2096,7 +2094,7 @@
         <v>26</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E14" s="4">
         <v>0</v>
@@ -2139,7 +2137,7 @@
         <v>28</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E15" s="4">
         <v>0</v>
@@ -2182,7 +2180,7 @@
         <v>30</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E16" s="4">
         <v>0</v>
@@ -2225,7 +2223,7 @@
         <v>32</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E17" s="4">
         <v>0</v>
@@ -2268,7 +2266,7 @@
         <v>34</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E18" s="4">
         <v>0</v>
@@ -2311,7 +2309,7 @@
         <v>36</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E19" s="4">
         <v>0</v>
@@ -2354,7 +2352,7 @@
         <v>38</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E20" s="4">
         <v>0</v>
@@ -2397,7 +2395,7 @@
         <v>40</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E21" s="4">
         <v>0</v>
@@ -2440,7 +2438,7 @@
         <v>42</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E22" s="4">
         <v>0</v>
@@ -2483,7 +2481,7 @@
         <v>44</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E23" s="4">
         <v>0</v>
@@ -2526,7 +2524,7 @@
         <v>46</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E24" s="4">
         <v>0</v>
@@ -2569,7 +2567,7 @@
         <v>48</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E25" s="4">
         <v>0</v>
@@ -2612,7 +2610,7 @@
         <v>50</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E26" s="4">
         <v>0</v>
@@ -2655,7 +2653,7 @@
         <v>52</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E27" s="4">
         <v>0</v>
@@ -2741,7 +2739,7 @@
         <v>57</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E29" s="4">
         <v>1</v>
@@ -2827,7 +2825,7 @@
         <v>62</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E31" s="4">
         <v>1</v>
@@ -2870,7 +2868,7 @@
         <v>64</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E32" s="4">
         <v>1</v>
@@ -2913,7 +2911,7 @@
         <v>66</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E33" s="4">
         <v>1</v>
@@ -2956,7 +2954,7 @@
         <v>12</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E34" s="4">
         <v>1</v>
@@ -2999,7 +2997,7 @@
         <v>69</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E35" s="4">
         <v>1</v>
@@ -3085,7 +3083,7 @@
         <v>74</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E37" s="4">
         <v>1</v>
@@ -3128,7 +3126,7 @@
         <v>76</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E38" s="4">
         <v>1</v>
@@ -3171,7 +3169,7 @@
         <v>78</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E39" s="4">
         <v>1</v>
@@ -3214,7 +3212,7 @@
         <v>80</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E40" s="4">
         <v>1</v>
@@ -3343,7 +3341,7 @@
         <v>88</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E43" s="4">
         <v>1</v>
@@ -3386,7 +3384,7 @@
         <v>90</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E44" s="4">
         <v>1</v>
@@ -3429,7 +3427,7 @@
         <v>92</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E45" s="4">
         <v>1</v>
@@ -3472,7 +3470,7 @@
         <v>94</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E46" s="4">
         <v>1</v>
@@ -3644,7 +3642,7 @@
         <v>105</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E50" s="4">
         <v>1</v>
@@ -3687,7 +3685,7 @@
         <v>107</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E51" s="4">
         <v>1</v>
@@ -3730,7 +3728,7 @@
         <v>110</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E52" s="4">
         <v>1</v>
@@ -3859,7 +3857,7 @@
         <v>117</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E55" s="4">
         <v>1</v>
@@ -3902,7 +3900,7 @@
         <v>119</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E56" s="4">
         <v>1</v>
@@ -3945,7 +3943,7 @@
         <v>121</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E57" s="4">
         <v>1</v>
@@ -3988,7 +3986,7 @@
         <v>123</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E58" s="4">
         <v>1</v>
@@ -4031,7 +4029,7 @@
         <v>125</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E59" s="4">
         <v>1</v>
@@ -4117,7 +4115,7 @@
         <v>130</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E61" s="4">
         <v>1</v>
@@ -4160,7 +4158,7 @@
         <v>132</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E62" s="4">
         <v>1</v>
@@ -4203,7 +4201,7 @@
         <v>134</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E63" s="4">
         <v>1</v>
@@ -4246,7 +4244,7 @@
         <v>8</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E64" s="4">
         <v>1</v>
@@ -4289,7 +4287,7 @@
         <v>137</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E65" s="4">
         <v>1</v>
@@ -4418,7 +4416,7 @@
         <v>145</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E68" s="4">
         <v>1</v>
@@ -4547,7 +4545,7 @@
         <v>153</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E71" s="4">
         <v>1</v>
@@ -4590,7 +4588,7 @@
         <v>155</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E72" s="4">
         <v>1</v>
@@ -4633,7 +4631,7 @@
         <v>157</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E73" s="4">
         <v>1</v>
@@ -4719,7 +4717,7 @@
         <v>161</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E75" s="4">
         <v>1</v>
@@ -4762,7 +4760,7 @@
         <v>163</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E76" s="4">
         <v>1</v>
@@ -4805,7 +4803,7 @@
         <v>78</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E77" s="4">
         <v>1</v>
@@ -4848,7 +4846,7 @@
         <v>166</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E78" s="4">
         <v>1</v>
@@ -4891,7 +4889,7 @@
         <v>168</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E79" s="4">
         <v>1</v>
@@ -4934,7 +4932,7 @@
         <v>170</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E80" s="4">
         <v>1</v>
@@ -4977,7 +4975,7 @@
         <v>172</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E81" s="4">
         <v>1</v>
@@ -5020,7 +5018,7 @@
         <v>174</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E82" s="4">
         <v>1</v>
@@ -5063,7 +5061,7 @@
         <v>176</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E83" s="4">
         <v>1</v>
@@ -5106,7 +5104,7 @@
         <v>178</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E84" s="4">
         <v>1</v>
@@ -5149,7 +5147,7 @@
         <v>180</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E85" s="4">
         <v>1</v>
@@ -5192,7 +5190,7 @@
         <v>182</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E86" s="4">
         <v>1</v>
@@ -5235,7 +5233,7 @@
         <v>184</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E87" s="4">
         <v>1</v>
@@ -5278,7 +5276,7 @@
         <v>186</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E88" s="4">
         <v>1</v>
@@ -5321,7 +5319,7 @@
         <v>188</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E89" s="4">
         <v>1</v>
@@ -5364,7 +5362,7 @@
         <v>190</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E90" s="4">
         <v>1</v>
@@ -5407,7 +5405,7 @@
         <v>192</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E91" s="4">
         <v>1</v>
@@ -5450,7 +5448,7 @@
         <v>194</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E92" s="4">
         <v>1</v>
@@ -5493,7 +5491,7 @@
         <v>196</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E93" s="4">
         <v>1</v>
@@ -5536,7 +5534,7 @@
         <v>198</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E94" s="4">
         <v>1</v>
@@ -5579,7 +5577,7 @@
         <v>200</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E95" s="4">
         <v>1</v>
@@ -5622,7 +5620,7 @@
         <v>202</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E96" s="4">
         <v>1</v>
@@ -5665,7 +5663,7 @@
         <v>205</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E97" s="4">
         <v>1</v>
@@ -5708,7 +5706,7 @@
         <v>207</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E98" s="4">
         <v>1</v>
@@ -5751,7 +5749,7 @@
         <v>209</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E99" s="4">
         <v>1</v>
@@ -5794,7 +5792,7 @@
         <v>211</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E100" s="4">
         <v>1</v>
@@ -5837,7 +5835,7 @@
         <v>213</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E101" s="4">
         <v>1</v>
@@ -5880,7 +5878,7 @@
         <v>107</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E102" s="4">
         <v>1</v>
@@ -5923,7 +5921,7 @@
         <v>54</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E103" s="4">
         <v>1</v>
@@ -5966,7 +5964,7 @@
         <v>217</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E104" s="4">
         <v>1</v>
@@ -5984,7 +5982,8 @@
         <v>1</v>
       </c>
       <c r="J104" s="4">
-        <v>0</v>
+        <f>H104-I104</f>
+        <v>1</v>
       </c>
       <c r="K104" s="6">
         <v>0</v>
@@ -6008,7 +6007,7 @@
         <v>219</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E105" s="4">
         <v>1</v>
@@ -6049,7 +6048,7 @@
         <v>219</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>221</v>
+        <v>310</v>
       </c>
       <c r="E106" s="4">
         <v>1</v>
@@ -6086,13 +6085,13 @@
         <v>106</v>
       </c>
       <c r="B107" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C107" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="C107" s="4" t="s">
-        <v>223</v>
-      </c>
       <c r="D107" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E107" s="4">
         <v>1</v>
@@ -6129,13 +6128,13 @@
         <v>107</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E108" s="4">
         <v>1</v>
@@ -6172,13 +6171,13 @@
         <v>108</v>
       </c>
       <c r="B109" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="C109" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="C109" s="4" t="s">
-        <v>226</v>
-      </c>
       <c r="D109" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E109" s="4">
         <v>1</v>
@@ -6215,7 +6214,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>157</v>
@@ -6258,13 +6257,13 @@
         <v>110</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>196</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E111" s="4">
         <v>1</v>
@@ -6315,13 +6314,13 @@
       </c>
       <c r="J112" s="4">
         <f t="shared" si="9"/>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K112" s="5">
         <f t="shared" si="9"/>
         <v>104</v>
       </c>
-      <c r="L112" s="13">
+      <c r="L112" s="1">
         <f t="shared" si="9"/>
         <v>4004</v>
       </c>
@@ -6339,7 +6338,7 @@
     </row>
     <row r="116" spans="9:12" ht="18" customHeight="1">
       <c r="I116" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J116" s="1">
         <f>I112/(I112+K112)</f>
@@ -6348,29 +6347,29 @@
     </row>
     <row r="117" spans="9:12" ht="18" customHeight="1">
       <c r="I117" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J117" s="1">
         <f>I112/(I112+J112)</f>
-        <v>0.80130293159609123</v>
+        <v>0.79870129870129869</v>
       </c>
     </row>
     <row r="118" spans="9:12" ht="18" customHeight="1">
       <c r="I118" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J118" s="1">
         <f>2*((J116*J117)/(J116+J117))</f>
-        <v>0.74885844748858454</v>
+        <v>0.74772036474164127</v>
       </c>
     </row>
     <row r="119" spans="9:12" ht="18" customHeight="1">
       <c r="I119" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J119" s="1">
         <f>(I112+L112)/(I112+J112+K112+L112)</f>
-        <v>0.96262740656851642</v>
+        <v>0.9624094202898551</v>
       </c>
     </row>
   </sheetData>
